--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -22,25 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ali Express 8 GPIO Board</t>
-    </r>
+    <t xml:space="preserve"> Ali Express 8 GPIO Board</t>
   </si>
   <si>
     <t xml:space="preserve">Buttons, Wires, and LEDs</t>
@@ -84,13 +66,13 @@
     </font>
     <font>
       <sz val="20"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -138,7 +120,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -147,7 +129,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,10 +157,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.15"/>
   </cols>
@@ -189,7 +175,7 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -198,7 +184,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -207,11 +193,12 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5.88</v>
+        <f aca="false">SUM(B1:B3)</f>
+        <v>5.79</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -222,7 +209,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="Ali Express 8 GPIO Board"/>
+    <hyperlink ref="A1" r:id="rId1" display=" Ali Express 8 GPIO Board"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
